--- a/example_submission_data/prep_submissions/newman2020truthiness/data/Trivia Claim Used for Exp 3+4 Truth Effect - Supplemental Materials.xlsx
+++ b/example_submission_data/prep_submissions/newman2020truthiness/data/Trivia Claim Used for Exp 3+4 Truth Effect - Supplemental Materials.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrjalbert/Desktop/Truth Effect Organizing Everything for Pub/Materials, Data, and Supplimentary Materials for Submission/Materials/Trivia claims/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sven\Documents\projects\research\truth-db\example_submission_data\prep_submissions\newman2020truthiness\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8516F3D7-8810-4CBE-9D50-4FBE71A8C172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-900" yWindow="460" windowWidth="28160" windowHeight="16820" tabRatio="500"/>
+    <workbookView xWindow="-25320" yWindow="360" windowWidth="25440" windowHeight="15270" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="statements" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="178">
   <si>
     <t>CB1</t>
   </si>
@@ -566,7 +577,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -652,6 +663,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -919,20 +933,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:L39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -946,7 +960,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>105</v>
       </c>
@@ -978,7 +992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>106</v>
       </c>
@@ -1010,7 +1024,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>107</v>
       </c>
@@ -1042,7 +1056,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>108</v>
       </c>
@@ -1074,7 +1088,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>109</v>
       </c>
@@ -1106,7 +1120,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>110</v>
       </c>
@@ -1138,7 +1152,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>111</v>
       </c>
@@ -1170,7 +1184,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>112</v>
       </c>
@@ -1202,7 +1216,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>113</v>
       </c>
@@ -1234,7 +1248,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>114</v>
       </c>
@@ -1266,7 +1280,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>115</v>
       </c>
@@ -1298,7 +1312,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>116</v>
       </c>
@@ -1330,7 +1344,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>117</v>
       </c>
@@ -1362,7 +1376,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>118</v>
       </c>
@@ -1394,7 +1408,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>119</v>
       </c>
@@ -1426,7 +1440,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>120</v>
       </c>
@@ -1461,7 +1475,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>121</v>
       </c>
@@ -1504,7 +1518,7 @@
         <v>7.9065976067007604E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>122</v>
       </c>
@@ -1547,7 +1561,7 @@
         <v>8.1596665820461392E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>123</v>
       </c>
@@ -1579,7 +1593,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>142</v>
       </c>
@@ -1611,7 +1625,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>143</v>
       </c>
@@ -1643,7 +1657,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>144</v>
       </c>
@@ -1675,7 +1689,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>145</v>
       </c>
@@ -1707,7 +1721,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>146</v>
       </c>
@@ -1739,7 +1753,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>147</v>
       </c>
@@ -1771,7 +1785,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>148</v>
       </c>
@@ -1803,7 +1817,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>149</v>
       </c>
@@ -1835,7 +1849,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>150</v>
       </c>
@@ -1867,7 +1881,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>151</v>
       </c>
@@ -1899,7 +1913,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>152</v>
       </c>
@@ -1932,7 +1946,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>153</v>
       </c>
@@ -1964,7 +1978,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>154</v>
       </c>
@@ -1996,7 +2010,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>155</v>
       </c>
@@ -2028,7 +2042,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>156</v>
       </c>
@@ -2060,7 +2074,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>157</v>
       </c>
@@ -2092,7 +2106,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>158</v>
       </c>
@@ -2124,7 +2138,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>159</v>
       </c>
@@ -2156,7 +2170,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G41" t="s">
         <v>42</v>
       </c>
@@ -2164,7 +2178,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D42" s="2" t="s">
         <v>88</v>
       </c>
@@ -2188,7 +2202,7 @@
         <v>8.0439966653983841E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D43" s="2" t="s">
         <v>90</v>
       </c>
@@ -2210,7 +2224,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D44" s="2" t="s">
         <v>94</v>
       </c>
@@ -2234,7 +2248,7 @@
         <v>8.3511574087282894E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D45" s="2" t="s">
         <v>96</v>
       </c>
@@ -2256,7 +2270,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D46" s="2" t="s">
         <v>100</v>
       </c>
@@ -2280,7 +2294,7 @@
         <v>8.0810870713023078E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D47" s="2" t="s">
         <v>102</v>
       </c>
@@ -2306,4 +2320,1260 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8445EA00-18F1-4217-B84A-9F40C6A5B580}">
+  <dimension ref="A1:E73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>140</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>141</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>162</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>163</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>165</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>166</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>167</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>168</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>169</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>170</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>171</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>172</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>173</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>174</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>175</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>176</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>177</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0.63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>